--- a/notebooks/assets/test/RFnh3_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test/RFnh3_st0_01_nomountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U7"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -459,81 +459,6 @@
           <t>1007_1014_2021</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>0324_0331_2021</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>0418_0425_2021</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>0717_0724_2021</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>0903_0910_2021</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>1007_1014_2021</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>0324_0331_2021</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>0418_0425_2021</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>0717_0724_2021</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>0903_0910_2021</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>1007_1014_2021</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>0324_0331_2021</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>0418_0425_2021</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>0717_0724_2021</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>0903_0910_2021</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>1007_1014_2021</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -542,63 +467,18 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.62</v>
+        <v>0.42</v>
       </c>
       <c r="C2" t="n">
-        <v>1.713</v>
+        <v>0.248</v>
       </c>
       <c r="D2" t="n">
-        <v>2.408</v>
+        <v>0.644</v>
       </c>
       <c r="E2" t="n">
-        <v>4.11</v>
+        <v>0.944</v>
       </c>
       <c r="F2" t="n">
-        <v>2.088</v>
-      </c>
-      <c r="G2" t="n">
-        <v>4.412</v>
-      </c>
-      <c r="H2" t="n">
-        <v>2.049</v>
-      </c>
-      <c r="I2" t="n">
-        <v>3.347</v>
-      </c>
-      <c r="J2" t="n">
-        <v>3.982</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.022</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.408</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.169</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0.492</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0.664</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.301</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>0.42</v>
-      </c>
-      <c r="R2" t="n">
-        <v>0.248</v>
-      </c>
-      <c r="S2" t="n">
-        <v>0.644</v>
-      </c>
-      <c r="T2" t="n">
-        <v>0.944</v>
-      </c>
-      <c r="U2" t="n">
         <v>0.35</v>
       </c>
     </row>
@@ -609,63 +489,18 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>39.442</v>
+        <v>0.76</v>
       </c>
       <c r="C3" t="n">
-        <v>5.454</v>
+        <v>0.405</v>
       </c>
       <c r="D3" t="n">
-        <v>11.557</v>
+        <v>2.091</v>
       </c>
       <c r="E3" t="n">
-        <v>34.018</v>
+        <v>5.997</v>
       </c>
       <c r="F3" t="n">
-        <v>12.004</v>
-      </c>
-      <c r="G3" t="n">
-        <v>40.09</v>
-      </c>
-      <c r="H3" t="n">
-        <v>8.901</v>
-      </c>
-      <c r="I3" t="n">
-        <v>22.166</v>
-      </c>
-      <c r="J3" t="n">
-        <v>31.868</v>
-      </c>
-      <c r="K3" t="n">
-        <v>10.409</v>
-      </c>
-      <c r="L3" t="n">
-        <v>0.613</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.103</v>
-      </c>
-      <c r="N3" t="n">
-        <v>1.952</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3.928</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.466</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0.76</v>
-      </c>
-      <c r="R3" t="n">
-        <v>0.405</v>
-      </c>
-      <c r="S3" t="n">
-        <v>2.091</v>
-      </c>
-      <c r="T3" t="n">
-        <v>5.997</v>
-      </c>
-      <c r="U3" t="n">
         <v>0.555</v>
       </c>
     </row>
@@ -676,63 +511,18 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.837</v>
+        <v>0.998</v>
       </c>
       <c r="C4" t="n">
-        <v>0.877</v>
+        <v>0.993</v>
       </c>
       <c r="D4" t="n">
-        <v>0.92</v>
+        <v>0.992</v>
       </c>
       <c r="E4" t="n">
-        <v>0.787</v>
+        <v>0.987</v>
       </c>
       <c r="F4" t="n">
-        <v>0.705</v>
-      </c>
-      <c r="G4" t="n">
-        <v>0.865</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.745</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.829</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.843</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0.87</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.999</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0.993</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0.991</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.997</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>0.998</v>
-      </c>
-      <c r="R4" t="n">
-        <v>0.993</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.992</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.987</v>
-      </c>
-      <c r="U4" t="n">
         <v>0.996</v>
       </c>
     </row>
@@ -743,63 +533,18 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>14.956</v>
+        <v>18.401</v>
       </c>
       <c r="C5" t="n">
-        <v>10.748</v>
+        <v>10.414</v>
       </c>
       <c r="D5" t="n">
-        <v>8.166</v>
+        <v>11.746</v>
       </c>
       <c r="E5" t="n">
-        <v>10.326</v>
+        <v>14.18</v>
       </c>
       <c r="F5" t="n">
-        <v>9.163</v>
-      </c>
-      <c r="G5" t="n">
-        <v>15.383</v>
-      </c>
-      <c r="H5" t="n">
-        <v>10.758</v>
-      </c>
-      <c r="I5" t="n">
-        <v>8.942</v>
-      </c>
-      <c r="J5" t="n">
-        <v>10.304</v>
-      </c>
-      <c r="K5" t="n">
-        <v>9.497</v>
-      </c>
-      <c r="L5" t="n">
-        <v>17.694</v>
-      </c>
-      <c r="M5" t="n">
-        <v>10.536</v>
-      </c>
-      <c r="N5" t="n">
-        <v>11.049</v>
-      </c>
-      <c r="O5" t="n">
-        <v>13.329</v>
-      </c>
-      <c r="P5" t="n">
-        <v>11.48</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>18.401</v>
-      </c>
-      <c r="R5" t="n">
-        <v>10.414</v>
-      </c>
-      <c r="S5" t="n">
-        <v>11.746</v>
-      </c>
-      <c r="T5" t="n">
-        <v>14.18</v>
-      </c>
-      <c r="U5" t="n">
         <v>12.012</v>
       </c>
     </row>
@@ -810,63 +555,18 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>272.549</v>
+        <v>368.858</v>
       </c>
       <c r="C6" t="n">
-        <v>135.617</v>
+        <v>147.652</v>
       </c>
       <c r="D6" t="n">
-        <v>149.976</v>
+        <v>323.418</v>
       </c>
       <c r="E6" t="n">
-        <v>194.43</v>
+        <v>456.145</v>
       </c>
       <c r="F6" t="n">
-        <v>102.945</v>
-      </c>
-      <c r="G6" t="n">
-        <v>288.521</v>
-      </c>
-      <c r="H6" t="n">
-        <v>138.082</v>
-      </c>
-      <c r="I6" t="n">
-        <v>178.69</v>
-      </c>
-      <c r="J6" t="n">
-        <v>211.569</v>
-      </c>
-      <c r="K6" t="n">
-        <v>110.82</v>
-      </c>
-      <c r="L6" t="n">
-        <v>343.112</v>
-      </c>
-      <c r="M6" t="n">
-        <v>145.433</v>
-      </c>
-      <c r="N6" t="n">
-        <v>287.761</v>
-      </c>
-      <c r="O6" t="n">
-        <v>382.879</v>
-      </c>
-      <c r="P6" t="n">
-        <v>169.03</v>
-      </c>
-      <c r="Q6" t="n">
-        <v>368.858</v>
-      </c>
-      <c r="R6" t="n">
-        <v>147.652</v>
-      </c>
-      <c r="S6" t="n">
-        <v>323.418</v>
-      </c>
-      <c r="T6" t="n">
-        <v>456.145</v>
-      </c>
-      <c r="U6" t="n">
         <v>188.65</v>
       </c>
     </row>
@@ -877,63 +577,18 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.462</v>
+        <v>0.136</v>
       </c>
       <c r="C7" t="n">
-        <v>-2.048</v>
+        <v>-1.511</v>
       </c>
       <c r="D7" t="n">
-        <v>0.013</v>
+        <v>-0.158</v>
       </c>
       <c r="E7" t="n">
-        <v>0.139</v>
+        <v>-0.001</v>
       </c>
       <c r="F7" t="n">
-        <v>-1.066</v>
-      </c>
-      <c r="G7" t="n">
-        <v>-0.022</v>
-      </c>
-      <c r="H7" t="n">
-        <v>-2.954</v>
-      </c>
-      <c r="I7" t="n">
-        <v>-0.236</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.062</v>
-      </c>
-      <c r="K7" t="n">
-        <v>-0.547</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0.227</v>
-      </c>
-      <c r="M7" t="n">
-        <v>-1.134</v>
-      </c>
-      <c r="N7" t="n">
-        <v>-0.044</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0.124</v>
-      </c>
-      <c r="P7" t="n">
-        <v>-0.03</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>0.136</v>
-      </c>
-      <c r="R7" t="n">
-        <v>-1.511</v>
-      </c>
-      <c r="S7" t="n">
-        <v>-0.158</v>
-      </c>
-      <c r="T7" t="n">
-        <v>-0.001</v>
-      </c>
-      <c r="U7" t="n">
         <v>-0.06</v>
       </c>
     </row>

--- a/notebooks/assets/test/RFnh3_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test/RFnh3_st0_01_nomountains.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,128 +467,172 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.42</v>
+        <v>0.426</v>
       </c>
       <c r="C2" t="n">
-        <v>0.248</v>
+        <v>0.245</v>
       </c>
       <c r="D2" t="n">
-        <v>0.644</v>
+        <v>0.641</v>
       </c>
       <c r="E2" t="n">
         <v>0.944</v>
       </c>
       <c r="F2" t="n">
-        <v>0.35</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>MSE_sensor</t>
+          <t>RMSE_sensor</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.76</v>
+        <v>0.798</v>
       </c>
       <c r="C3" t="n">
-        <v>0.405</v>
+        <v>0.472</v>
       </c>
       <c r="D3" t="n">
-        <v>2.091</v>
+        <v>1.385</v>
       </c>
       <c r="E3" t="n">
-        <v>5.997</v>
+        <v>2.261</v>
       </c>
       <c r="F3" t="n">
-        <v>0.555</v>
+        <v>0.656</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>R2_sensor</t>
+          <t>MSE_sensor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.998</v>
+        <v>0.756</v>
       </c>
       <c r="C4" t="n">
-        <v>0.993</v>
+        <v>0.394</v>
       </c>
       <c r="D4" t="n">
-        <v>0.992</v>
+        <v>2.058</v>
       </c>
       <c r="E4" t="n">
-        <v>0.987</v>
+        <v>5.846</v>
       </c>
       <c r="F4" t="n">
-        <v>0.996</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MAE_cams</t>
+          <t>R2_sensor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>18.401</v>
+        <v>0.998</v>
       </c>
       <c r="C5" t="n">
-        <v>10.414</v>
+        <v>0.993</v>
       </c>
       <c r="D5" t="n">
-        <v>11.746</v>
+        <v>0.992</v>
       </c>
       <c r="E5" t="n">
-        <v>14.18</v>
+        <v>0.987</v>
       </c>
       <c r="F5" t="n">
-        <v>12.012</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>MSE_cams</t>
+          <t>MAE_cams</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>368.858</v>
+        <v>18.401</v>
       </c>
       <c r="C6" t="n">
-        <v>147.652</v>
+        <v>10.414</v>
       </c>
       <c r="D6" t="n">
-        <v>323.418</v>
+        <v>11.746</v>
       </c>
       <c r="E6" t="n">
-        <v>456.145</v>
+        <v>14.18</v>
       </c>
       <c r="F6" t="n">
-        <v>188.65</v>
+        <v>12.012</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
+          <t>RMSE_cams</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>19.196</v>
+      </c>
+      <c r="C7" t="n">
+        <v>12.126</v>
+      </c>
+      <c r="D7" t="n">
+        <v>17.744</v>
+      </c>
+      <c r="E7" t="n">
+        <v>21.241</v>
+      </c>
+      <c r="F7" t="n">
+        <v>13.697</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>MSE_cams</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>368.858</v>
+      </c>
+      <c r="C8" t="n">
+        <v>147.652</v>
+      </c>
+      <c r="D8" t="n">
+        <v>323.418</v>
+      </c>
+      <c r="E8" t="n">
+        <v>456.145</v>
+      </c>
+      <c r="F8" t="n">
+        <v>188.65</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>R2_cams</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B9" t="n">
         <v>0.136</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C9" t="n">
         <v>-1.511</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D9" t="n">
         <v>-0.158</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E9" t="n">
         <v>-0.001</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F9" t="n">
         <v>-0.06</v>
       </c>
     </row>

--- a/notebooks/assets/test/RFnh3_st0_01_nomountains.xlsx
+++ b/notebooks/assets/test/RFnh3_st0_01_nomountains.xlsx
@@ -467,19 +467,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.426</v>
+        <v>0.483</v>
       </c>
       <c r="C2" t="n">
-        <v>0.245</v>
+        <v>0.28</v>
       </c>
       <c r="D2" t="n">
-        <v>0.641</v>
+        <v>0.526</v>
       </c>
       <c r="E2" t="n">
-        <v>0.944</v>
+        <v>0.9389999999999999</v>
       </c>
       <c r="F2" t="n">
-        <v>0.339</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="3">
@@ -489,19 +489,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.798</v>
+        <v>0.993</v>
       </c>
       <c r="C3" t="n">
-        <v>0.472</v>
+        <v>0.5580000000000001</v>
       </c>
       <c r="D3" t="n">
-        <v>1.385</v>
+        <v>1.184</v>
       </c>
       <c r="E3" t="n">
-        <v>2.261</v>
+        <v>2.316</v>
       </c>
       <c r="F3" t="n">
-        <v>0.656</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
@@ -511,19 +511,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.756</v>
+        <v>1.199</v>
       </c>
       <c r="C4" t="n">
-        <v>0.394</v>
+        <v>0.43</v>
       </c>
       <c r="D4" t="n">
-        <v>2.058</v>
+        <v>1.556</v>
       </c>
       <c r="E4" t="n">
-        <v>5.846</v>
+        <v>6.147</v>
       </c>
       <c r="F4" t="n">
-        <v>0.525</v>
+        <v>1.121</v>
       </c>
     </row>
     <row r="5">
@@ -533,19 +533,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.998</v>
+        <v>0.997</v>
       </c>
       <c r="C5" t="n">
-        <v>0.993</v>
+        <v>0.992</v>
       </c>
       <c r="D5" t="n">
-        <v>0.992</v>
+        <v>0.994</v>
       </c>
       <c r="E5" t="n">
         <v>0.987</v>
       </c>
       <c r="F5" t="n">
-        <v>0.996</v>
+        <v>0.99</v>
       </c>
     </row>
     <row r="6">
